--- a/Bulk water.xlsx
+++ b/Bulk water.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazisadman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazisadman/Documents/GitHub/QCM-D-Analysis-GUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988CD61-CC8A-514E-A0A0-E0949593133E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADDB7A3-096C-404C-AF0B-DAB336989E57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{8F1AFE5F-777F-1747-AF07-0B32D5943DAD}"/>
   </bookViews>
@@ -16,10 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -401,7 +407,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
